--- a/newtab带格式.xlsx
+++ b/newtab带格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Code\Firefox_newtab_img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1AE3A0-08E8-4873-AEB1-C9FE5910AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D7C617-45B6-43FC-8F0F-7DFBCFF0BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>https://metaso.cn/</t>
   </si>
   <si>
-    <t>https://tongyi.aliyun.com/qianwen/</t>
-  </si>
-  <si>
     <t>https://copilot.microsoft.com/</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>https://zq5.bookan.com.cn/?id=22833#/</t>
   </si>
   <si>
-    <t>https://www.xuexi.cn/</t>
-  </si>
-  <si>
     <t>https://mail.126.com/</t>
   </si>
   <si>
@@ -342,9 +336,6 @@
   </si>
   <si>
     <t>Steam.webp</t>
-  </si>
-  <si>
-    <t>https://store.epicgames.com/zh-CN/</t>
   </si>
   <si>
     <t>EpicGames</t>
@@ -507,18 +498,107 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Google </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>趋势</t>
-    </r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东北林业大学</t>
+    </r>
+  </si>
+  <si>
+    <t>X-MOL.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScienceDirect.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qwen.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHubCopilot.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemini.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectedPapers.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectPaper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFUTjjxy.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoogleScholar.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebofScience.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebofScience</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleTex</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaDaily.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleTex.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-Library</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z-Library.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Google</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学术</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnki.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tongyi.aliyun.com/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xuexi.cn/index.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -586,31 +666,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>中国知网</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国家哲学社会科学文献中心</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国家哲学社会科学文献中心</t>
+      <t>哔哩哔哩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哔哩哔哩</t>
     </r>
     <r>
       <rPr>
@@ -621,17 +689,30 @@
       </rPr>
       <t>.png</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>博看书苑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家哲学社会科学文献中心</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家哲学社会科学文献中心</t>
     </r>
     <r>
       <rPr>
@@ -640,17 +721,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浙江</t>
+      <t>.png</t>
     </r>
   </si>
   <si>
@@ -671,31 +742,29 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通义千问</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秘塔</t>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浙江</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>博看书苑</t>
     </r>
     <r>
       <rPr>
@@ -704,53 +773,31 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜索</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>豆包</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>哔哩哔哩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研飞</t>
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通义千问</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘塔</t>
     </r>
     <r>
       <rPr>
@@ -759,118 +806,53 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>ivySCI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CARSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应用资源</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东北林业大学</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工大学工部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工大团委</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合肥工业大学</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>统一身份认证</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经济学院</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学习强国</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学习强国</t>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豆包</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国知网</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研飞</t>
     </r>
     <r>
       <rPr>
@@ -879,31 +861,19 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工大邮箱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网易灵犀办公</t>
+      <t>ivySCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研飞</t>
     </r>
     <r>
       <rPr>
@@ -912,70 +882,107 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研究生培养处</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>WiFi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自助服务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学工系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工大上网认证</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工大</t>
+      <t>ivySCI.png</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CARSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用资源</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工大学工部</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工大团委</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合肥工业大学</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统一身份认证</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经济学院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习强国</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习强国</t>
     </r>
     <r>
       <rPr>
@@ -984,31 +991,31 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>WebVPN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知乎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知乎</t>
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工大邮箱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网易灵犀办公</t>
     </r>
     <r>
       <rPr>
@@ -1029,19 +1036,58 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>百度贴吧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百度贴吧</t>
+      <t>研究生培养处</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WiFi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自助服务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学工系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工大上网认证</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工大</t>
     </r>
     <r>
       <rPr>
@@ -1050,31 +1096,31 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抖音</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抖音</t>
+      <t>WebVPN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知乎</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知乎</t>
     </r>
     <r>
       <rPr>
@@ -1095,19 +1141,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>小红书</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小红书</t>
+      <t>百度贴吧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度贴吧</t>
     </r>
     <r>
       <rPr>
@@ -1121,32 +1167,26 @@
   </si>
   <si>
     <r>
-      <t>QQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>QQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抖音</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抖音</t>
     </r>
     <r>
       <rPr>
@@ -1160,32 +1200,26 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Google </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日历</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Google </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日历</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小红书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小红书</t>
     </r>
     <r>
       <rPr>
@@ -1199,26 +1233,32 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百度翻译</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百度翻译</t>
+      <t>QQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
     </r>
     <r>
       <rPr>
@@ -1239,19 +1279,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>有道翻译</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有道翻译</t>
+      <t>百度翻译</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度翻译</t>
     </r>
     <r>
       <rPr>
@@ -1265,32 +1305,26 @@
   </si>
   <si>
     <r>
-      <t>DeepL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>翻译</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DeepL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>翻译</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有道翻译</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有道翻译</t>
     </r>
     <r>
       <rPr>
@@ -1304,26 +1338,32 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微博</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微博</t>
+      <t>DeepL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻译</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DeepL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻译</t>
     </r>
     <r>
       <rPr>
@@ -1337,32 +1377,26 @@
   </si>
   <si>
     <r>
-      <t>NGA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家社区</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NGA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家社区</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微博</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微博</t>
     </r>
     <r>
       <rPr>
@@ -1376,14 +1410,32 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网易</t>
+      <t>NGA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家社区</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NGA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家社区</t>
     </r>
     <r>
       <rPr>
@@ -1392,17 +1444,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>126</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邮箱</t>
+      <t>.png</t>
     </r>
   </si>
   <si>
@@ -1435,6 +1477,18 @@
       </rPr>
       <t>邮箱</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网易</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1442,31 +1496,17 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜书吧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜书吧</t>
+      <t>126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱</t>
     </r>
     <r>
       <rPr>
@@ -1475,55 +1515,31 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.webp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扩展搜搜</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空投</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓝奏云</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓝奏云</t>
+      <t>.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜书吧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜书吧</t>
     </r>
     <r>
       <rPr>
@@ -1532,31 +1548,55 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>坚果云</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>坚果云</t>
+      <t>.webp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展搜搜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空投</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝奏云</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝奏云</t>
     </r>
     <r>
       <rPr>
@@ -1577,19 +1617,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>百度网盘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百度网盘</t>
+      <t>坚果云</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果云</t>
     </r>
     <r>
       <rPr>
@@ -1610,19 +1650,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>起点中文网</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>起点中文网</t>
+      <t>百度网盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度网盘</t>
     </r>
     <r>
       <rPr>
@@ -1643,19 +1683,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>折趣书屋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>折趣书屋</t>
+      <t>起点中文网</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>起点中文网</t>
     </r>
     <r>
       <rPr>
@@ -1668,19 +1708,27 @@
     </r>
   </si>
   <si>
-    <t>X-MOL.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>哔哩哔哩</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折趣书屋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折趣书屋</t>
     </r>
     <r>
       <rPr>
@@ -1691,42 +1739,24 @@
       </rPr>
       <t>.png</t>
     </r>
+  </si>
+  <si>
+    <t>https://store.epicgames.com/</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ScienceDirect.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qwen.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>GitHubCopilot.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gemini.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConnectedPapers.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConnectPaper</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研飞</t>
+    <r>
+      <t>Google</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日历</t>
     </r>
     <r>
       <rPr>
@@ -1735,47 +1765,27 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>ivySCI.png</t>
+      <t>.png</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>HFUTjjxy.png</t>
+    <r>
+      <t>Google</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日历</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>GoogleScholar.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebofScience.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebofScience</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleTex</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChinaDaily.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleTex.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z-Library</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z-Library.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Google</t>
     </r>
@@ -1784,15 +1794,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学术</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cnki.png</t>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>趋势</t>
+    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1800,7 +1806,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1947,13 +1953,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2398,7 +2397,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2759,7 +2758,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2796,10 +2795,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2807,10 +2806,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2826,13 +2825,13 @@
     </row>
     <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2846,76 +2845,76 @@
     </row>
     <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>222</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+      <c r="A14" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -2924,7 +2923,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -2941,24 +2940,24 @@
     </row>
     <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2966,7 +2965,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -2974,330 +2973,330 @@
     </row>
     <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>204</v>
+        <v>165</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>211</v>
+        <v>166</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>42</v>
+      <c r="A34" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3313,254 +3312,257 @@
     </row>
     <row r="51" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A69" r:id="rId1" xr:uid="{723D7450-E515-4977-AAAC-2A90A40824D3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3581,7 +3583,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3595,46 +3597,46 @@
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/newtab带格式.xlsx
+++ b/newtab带格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Code\Firefox_newtab_img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D7C617-45B6-43FC-8F0F-7DFBCFF0BF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B05A4A5-B69B-4AC5-97DD-3EC30269F452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2757,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3081,24 +3081,24 @@
     </row>
     <row r="30" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">

--- a/newtab带格式.xlsx
+++ b/newtab带格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Code\Firefox_newtab_img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B05A4A5-B69B-4AC5-97DD-3EC30269F452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD5BC17-09C4-4766-8BEA-24A5A2C523B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="224">
   <si>
     <t>url</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>https://simpletex.cn/ai/latex_ocr</t>
-  </si>
-  <si>
-    <t>https://www.connectedpapers.com/</t>
   </si>
   <si>
     <t>https://www.x-mol.com/</t>
@@ -785,18 +782,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>通义千问</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>秘塔</t>
     </r>
     <r>
@@ -1798,6 +1783,36 @@
         <charset val="134"/>
       </rPr>
       <t>趋势</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通义千问</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通义千问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.png</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1806,7 +1821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1958,6 +1973,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -2387,7 +2409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2398,6 +2420,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2757,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2795,10 +2823,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2806,10 +2834,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2831,7 +2859,7 @@
         <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2859,10 +2887,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2881,10 +2909,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2892,10 +2920,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2911,19 +2939,21 @@
     </row>
     <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -2943,10 +2973,10 @@
         <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2957,7 +2987,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2965,7 +2995,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -2979,7 +3009,7 @@
         <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -2987,32 +3017,32 @@
         <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3020,10 +3050,10 @@
         <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3031,7 +3061,7 @@
         <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -3051,7 +3081,7 @@
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>54</v>
@@ -3062,7 +3092,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>52</v>
@@ -3073,7 +3103,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>50</v>
@@ -3084,10 +3114,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3095,7 +3125,7 @@
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>57</v>
@@ -3103,13 +3133,13 @@
     </row>
     <row r="32" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3117,21 +3147,21 @@
         <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3142,7 +3172,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3150,10 +3180,10 @@
         <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3161,10 +3191,10 @@
         <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3172,10 +3202,10 @@
         <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3183,7 +3213,7 @@
         <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>63</v>
@@ -3194,7 +3224,7 @@
         <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>84</v>
@@ -3205,7 +3235,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>59</v>
@@ -3216,7 +3246,7 @@
         <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>84</v>
@@ -3227,7 +3257,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>61</v>
@@ -3238,10 +3268,10 @@
         <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3249,10 +3279,10 @@
         <v>74</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3260,10 +3290,10 @@
         <v>75</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3271,10 +3301,10 @@
         <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3282,10 +3312,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3326,10 +3356,10 @@
         <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3337,10 +3367,10 @@
         <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3348,10 +3378,10 @@
         <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3359,10 +3389,10 @@
         <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3370,10 +3400,10 @@
         <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3381,10 +3411,10 @@
         <v>78</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3414,10 +3444,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3436,10 +3466,10 @@
         <v>97</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3447,7 +3477,7 @@
         <v>107</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C63" s="1"/>
     </row>
@@ -3456,7 +3486,7 @@
         <v>108</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -3465,10 +3495,10 @@
         <v>88</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3476,10 +3506,10 @@
         <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3487,10 +3517,10 @@
         <v>86</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3506,7 +3536,7 @@
     </row>
     <row r="69" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>104</v>
@@ -3538,10 +3568,10 @@
         <v>100</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
@@ -3549,10 +3579,10 @@
         <v>106</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3630,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>81</v>
@@ -3622,10 +3652,10 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
